--- a/KLTN_WEB/src/Data/Room.xlsx
+++ b/KLTN_WEB/src/Data/Room.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\chithanh\HT\hk1(2024-2025)\KLTN_KTXM\KLTN_WEB\src\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09DAA0FE-29D9-4FF7-9E36-85887EE523E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7ED8D29-32A8-439B-8B59-CB5E066E2F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8880" xr2:uid="{3C0FF13F-F738-47A6-8149-D203FEA4EE7C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3C0FF13F-F738-47A6-8149-D203FEA4EE7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>roomNumber</t>
   </si>
@@ -36,19 +36,19 @@
     <t>block</t>
   </si>
   <si>
+    <t>equipment_name</t>
+  </si>
+  <si>
+    <t>equipment_quantity</t>
+  </si>
+  <si>
+    <t>Giường</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>equipment_name</t>
-  </si>
-  <si>
-    <t>equipment_quantity</t>
-  </si>
-  <si>
-    <t>Giường</t>
-  </si>
-  <si>
-    <t>rf</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591DA7C-A284-4FA0-A40E-744A1BE0A167}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,26 +453,111 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>106</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>107</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
         <v>16</v>
       </c>
     </row>
